--- a/Resources/data/Retorno Países OCDE y AL - Actualización 01-08-2020.xlsx
+++ b/Resources/data/Retorno Países OCDE y AL - Actualización 01-08-2020.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$2:$N$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'21_abr'!$A$7:$N$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'21_abr'!$A$8:$N$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="352">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -818,55 +818,22 @@
     <t>País actualizado en el mapa</t>
   </si>
   <si>
+    <t>Paises sin información</t>
+  </si>
+  <si>
     <t>Fuente de información 1er corte</t>
   </si>
   <si>
     <t>Fuente de información 2do corte</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Clases en grupos reducidos, preestablecidos y asegurando un número mínimo de contactos entre los escolares. Nuevo sistema de gestión de aprendizaje comprado de Noruega (país con más de 20 años de experiencia). Educación Digital. Los profesores toman cursos en materia de educación a distancia. La presencialidad estará sujeta al número de contagios de cada región, por lo anterior un objetivo es mejorar la educación en línea. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En Berlín, asisten ya a clases alumnos y alumnas de primero al tercer grado, en presencia escalonada. A partir de este martes harán lo mismo alumnos y alumnas del cuarto al sexto grado en las escuelas berlinesas.
+    <t>Clases en grupos reducidos, preestablecidos y asegurando un número mínimo de contactos entre los escolares. Nuevo sistema de gestión de aprendizaje comprado de Noruega (país con más de 20 años de experiencia). Educación Digital. Los profesores toman cursos en materia de educación a distancia. La presencialidad estará sujeta al número de contagios de cada región, por lo anterior un objetivo es mejorar la educación en línea. 
+En Berlín, asisten ya a clases alumnos y alumnas de primero al tercer grado, en presencia escalonada. A partir de este martes harán lo mismo alumnos y alumnas del cuarto al sexto grado en las escuelas berlinesas.
 En Baviera podrán regresar a clases alumnos y alumnas de la educación básica el próximo 15 de marzo, si las tasas de contagios se mantienen en un bajo nivel. En Brandemburgo también se reanudarán las clases en la educación media superior, alternadamente. En Hamburgo, padres de familia pueden decidir si sus hijas e hijos van a clases presenciales, o si mantienen el home schooling. En Baja Sajonia se regresa a las clases presenciales, siempre y cuando la tasa de contagis no rebase los 100 por cada 100.000 habitantes. En Sajonia, las clases en la educación básica se reanudaron de manera presencial desde febrero, y a partir del 15 de marzo seguirá el resto del alumnado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Los colegios mantienen las clases presenciales en aquellos lands donde suman 200 casos por cada 100,000 habitantes en siete días, aunque a partir de los 100 positivos serán obligatorios dos test rápidos de antígenos semanales. Uso obligatorio de cubre bocas en pasillos, escaleras y comedor. En algunas escuelas con bajo contagio el uso del cubre bocas en las aulas no es obligatorio si se mantiene una distancia de 1-5 mts. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se mantienen los filtros sanitarios</t>
-    </r>
+  </si>
+  <si>
+    <t>Los colegios mantienen las clases presenciales en aquellos lands donde suman 200 casos por cada 100,000 habitantes en siete días, aunque a partir de los 100 positivos serán obligatorios dos test rápidos de antígenos semanales. Uso obligatorio de cubre bocas en pasillos, escaleras y comedor. En algunas escuelas con bajo contagio el uso del cubre bocas en las aulas no es obligatorio si se mantiene una distancia de 1-5 mts. 
+Se mantienen los filtros sanitarios</t>
   </si>
   <si>
     <t>https://www.forbes.com.mx/mundo-alemania-regreso-a-clases-pandemia/                               https://www.forbes.com.mx/mundo-alemania-regreso-a-clases-cubrebocas-cierres-contagios/  https://www.france24.com/es/europa/20210228-vuelta-mundo-alemania-clases-paraguay     https://www.dw.com/es/alemania-lista-para-volver-a-la-escuela-en-tiempos-de-coronavirus/a-54398811
@@ -876,79 +843,26 @@
     <t>https://www.dw.com/es/coronavirus-as%C3%AD-busca-alemania-reencontrar-la-normalidad/a-56805965</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pensar en alternativas para la organización o habilitación de espacios no escolares de intercambio de la comunidad y espacios de encuentro de estudiantes. Calendario escolar diferenciado por jurisdicción. Generar espacios de trabajo alternativo y tutoriales que aborden dudas e incertidumbres que genera la pandemia. Proponer estrategias educativas lúdicas que apunten al cuidado de la salud y la integridad de los niños. Valoración de la salud emocional. Se privilegia el uso de espacios al aire libre. Grupos burbuja. Se deben diseñar prácticas de enseñanza bajo un escenario multimodal 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En el caso de Argentina se presentan 3 modalidades de escolarización:
+    <t>Pensar en alternativas para la organización o habilitación de espacios no escolares de intercambio de la comunidad y espacios de encuentro de estudiantes. Calendario escolar diferenciado por jurisdicción. Generar espacios de trabajo alternativo y tutoriales que aborden dudas e incertidumbres que genera la pandemia. Proponer estrategias educativas lúdicas que apunten al cuidado de la salud y la integridad de los niños. Valoración de la salud emocional. Se privilegia el uso de espacios al aire libre. Grupos burbuja. Se deben diseñar prácticas de enseñanza bajo un escenario multimodal 
+En el caso de Argentina se presentan 3 modalidades de escolarización:
 Presencial: supone la asistencia regular a la escuela todos los días de la semana en el horario establecido por cada jurisdicción. Sólo podrá implementarse en las escuelas en las que la relación entre la cantidad de estudiantes y el espacio físico permita cumplir con el distanciamiento físico establecido en los protocolos.
 No presencial: supone que toda la escolaridad se cursa sin asistencia a actividades presenciales. Queda reservada a estudiantes que por razones de salud pertenezcan a grupos de riesgo y no puedan asistir a la escuela de manera presencial y a estudiantes matriculados en escuelas en las que, por decisión de las autoridades educativas y sanitarias jurisdiccionales, no puedan habilitarse actividades presenciales. 
 Combinada: alterna tiempos de trabajo de los y las estudiantes con asistencia a la escuela en clases presenciales y actividades educativas en situaciones de no presencialidad mediados por diferentes instrumentos y soportes. Se implementará en todos los casos que sea necesario para asegurar el sostenimiento de la norma básica de distanciamiento físico disminuyendo la densidad de ocupación de las aulas y los edificios escolares. Esto requerirá organizar a los y las estudiantes en grupos más reducidos conforme a diferentes criterios y definir regímenes de alternancia de días y horarios de asistencia a la escuela de cada grupo.</t>
-    </r>
   </si>
   <si>
     <t>Si</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pensar en alternativas para la organización o habilitación de espacios no escolares de intercambio de la comunidad y espacios de encuentro de estudiantes. El regreso a clases es según la situación epidemiológica de cada localidad.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La alternancia establece que el regreso a las actividades presenciales se realizará, en todos los casos, bajo las condiciones de seguridad sanitaria establecidas en los protocolos aprobados por el CONSEJO FEDERAL DE EDUCACIÓN y en los planes y protocolos jurisdiccionales, que serán actualizados en base al conocimiento producido a la fecha sobre medidas de prevención, la experiencia
+    <t>Pensar en alternativas para la organización o habilitación de espacios no escolares de intercambio de la comunidad y espacios de encuentro de estudiantes. El regreso a clases es según la situación epidemiológica de cada localidad.
+La alternancia establece que el regreso a las actividades presenciales se realizará, en todos los casos, bajo las condiciones de seguridad sanitaria establecidas en los protocolos aprobados por el CONSEJO FEDERAL DE EDUCACIÓN y en los planes y protocolos jurisdiccionales, que serán actualizados en base al conocimiento producido a la fecha sobre medidas de prevención, la experiencia
 internacional en materia educativa y los hábitos instalados fuera de la escuela.</t>
-    </r>
   </si>
   <si>
     <t>https://www.argentina.gob.ar/sites/default/files/res_cfe_387_-_if-2021-12986880-apn-sgcfeme.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Según cada región, las clases serán presenciales, semipresenciales o a través de internet. En la presencial se realiza el curso normal, pero con normas de bioseguridad; en semipresencial hay alternancia en la asistencia de estudiantes a la unidad educativa, con la finalidad de evitar las aglomeraciones. Actualmente asisten a las escuelas niñas y niños de poblaciones rurales, adonde aún no llegó la segunda ola.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se han establecido tres formas de atención a los alumnos:
+    <t>Según cada región, las clases serán presenciales, semipresenciales o a través de internet. En la presencial se realiza el curso normal, pero con normas de bioseguridad; en semipresencial hay alternancia en la asistencia de estudiantes a la unidad educativa, con la finalidad de evitar las aglomeraciones. Actualmente asisten a las escuelas niñas y niños de poblaciones rurales, adonde aún no llegó la segunda ola.
+Se han establecido tres formas de atención a los alumnos:
 Modalidad presencial. Implica la presencia física de las y los estudiantes,
 personal docente y administrativo, que interactúan en el desarrollo del proceso
 de aprendizaje en el espacio de la unidad educativa.
@@ -972,132 +886,69 @@
 modalidad a distancia con el apoyo de recursos pedagógicos, material impreso,
 digital, medios tecnológicos (plataformas virtuales) o medios de comunicación
 masiva, radio, televisión, de acuerdo con las características del contexto.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">La modalidad a distancia a distancia se implementa en lugares donde los niveles de contagio son críticos, por ejemplo en las grandes ciudades. La modalidad presencial  se realiza con distanciamiento dentro de las aulas, uso permanente de cubrebocas (barbijo) y sanitizador de alcohol rebajado con agua o alcohol en gel para las manos. Además del barbijo y gell, muchos niños asisten con máscaras de placas transparentes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se estableció el documento de Consideraciones clave para el retorno seguro a clases, en el cual se establecen las emdidas básicas sanitarias  aseguir, como: 
+  </si>
+  <si>
+    <t xml:space="preserve">La modalidad a distancia a distancia se implementa en lugares donde los niveles de contagio son críticos, por ejemplo en las grandes ciudades. La modalidad presencial  se realiza con distanciamiento dentro de las aulas, uso permanente de cubrebocas (barbijo) y sanitizador de alcohol rebajado con agua o alcohol en gel para las manos. Además del barbijo y gell, muchos niños asisten con máscaras de placas transparentes.
+Se estableció el documento de Consideraciones clave para el retorno seguro a clases, en el cual se establecen las emdidas básicas sanitarias  aseguir, como: 
 Con relación al número de días a la semana que asistirán las alumnas y alumnos a la unidad educativa y los horarios de ingreso y salida, es necesario considerar la capacidad de la infraestructura, la disponibilidad del equipo educativo posibilidad de transporte, alimentación entre otros factores específicos de la comunidad o contexto educativo. Se deberán desinfectar todos los elementos personales como las partes expuestas del cuerpo antes de ingresar al hogar. Utilizar en lo posible pañuelos descartables, trapos, bolsas u otro similar para no tener contacto con puertas, timbres. Es importante que, al volver a casa, se intente no tocar nada hasta higienizarse., </t>
-    </r>
   </si>
   <si>
     <t>https://www.unicef.org/bolivia/media/3336/file/Consideraciones%20clave%20para%20el%20retorno%20seguro%20a%20clases:%20Para%20tomadores%20de%20decisiones.pdf</t>
+  </si>
+  <si>
+    <t>Junio de 2021</t>
+  </si>
+  <si>
+    <t>Restricciones para recibir hasta un 35 % de sus alumnos, Las clases se han dividido en grupos, los cuales se irán rotando semanalmente para respetar el aforo limitado, se compaginará con el sistema de educación telemática. 
+Desarrollar calendarios académicos alternativas, basadas en diferentes escenarios salud pública y teniendo en cuenta las modalidades que se utilizarán para la educación a distancia.
+Empoderar a los profesores para que se enfrenten aprendizaje de las necesidades de recuperación y salud mental y atención psicosocial (SMAPS) de estudiantes. Esfuerzos para la formación debería mejorar explícitamente la capacidad de los profesores para cumplir necesidades básicas socioemocionales y de salud alfabetización / aritmética de los estudiantes, principalmente en escuelas con una alta proporción estudiantes en riesgo.
+Los maestros deben estar capacitados para identificar cambios de comportamiento y trastornos cognitivos relacionados con la edad, así como para proporcionar un apoyo de aprendizaje adecuado diferentes grupos de edad.
+Considere prescindir de menos exámenes importantes, como los que se utilizan para la toma de decisiones aprobación para concentrar recursos asegurando que los exámenes esenciales (como los que se utilizan para obtener un título en la educación secundaria superior o para el ingreso a la universidad) se realizan en forma válida, confiable y equitativa, tomando teniendo en cuenta la distancia física y otros requisitos sanitarios.
+Solo el 56% de las capitales y el 49% de los estados tenían planes estructurados. En los demás, los protocolos de las redes estatales y de las redes municipales de las capitales estatales no fueron divulgados en el formato de un documento único, estructurado y transparente. Como resultado, la comunidad escolar no tenía el conocimiento y la seguridad.
+Por ello, argumentan que la educación a distancia, política fundamental para el funcionamiento de modelos híbridos, necesita una mayor preocupación de todos los ámbitos de la administración pública, especialmente en lo que respecta a la expansión del acceso a internet.
+Y que los protocolos traigan más medidas para evitar la interacción entre clases y especifiquen pautas para que diferentes clases no se mezclen en actividades colectivas. En este sentido, crear burbujas sería la medida más eficaz.
+Para el movimiento Familias por la Vida, el protocolo de la red municipal de São Paulo está desactualizado e insuficiente frente a lo que se conoce hoy sobre la transmisión del coronavirus. Para el colectivo, las máscaras de tela, el alcohol en gel y la distancia en un aula cerrada son insuficientes.</t>
+  </si>
+  <si>
+    <t>Por normas de los ministerios de Salud y Educación es obligatorio para los padres de familia llevar a sus hijos con mascarilla, sin importar el nivel educativo al que asistan. En la escuela los maestros son los encargados de que los niños cumplan todas las normas de salubridad para evitar contagios de la covid-19. Los niños de kínder  son inducidos para guardar la distancia física entre compañeros, así como a mantener puesta la mascarilla todo el tiempo.
+Las escuelas privadas, que concentran el 19% de los estudiantes primarios y secundarios de Brasil, también están retomando sus actividades alternando clases presenciales opcionales y aulas remotas.
+En Río, sin embargo, apenas 38 centros de la red municipal fueron autorizados a recibir alumnos, por ser los únicos con las infraestructuras de higiene y espacio al día.</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/mec/pt-br/media/acesso_informacacao/pdf/CartilhacomSumarioFinal.pdf
+https://www.efe.com/efe/america/sociedad/brasil-empieza-a-retomar-las-clases-con-enormes-brechas-de-desigualdad/20000013-4460272
+https://www.bbc.com/portuguese/brasil-56302283
+https://www.france24.com/es/minuto-a-minuto/20210223-entre-cautela-y-recelo-sudam%C3%A9rica-trata-de-volver-a-clases
+https://elfaro.net/es/202104/ef_foto/25391/Regreso-a-clases-en-pandemia.htm
+https://www.unicef.org/brazil/media/8761/file/marco-de-acao-e-recomendacoes-para-a-reabertura-de-escolas.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Septiembre de 2020
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Preescolar, primaria y secundaria volvieron a clases presenciales el 1 de septiembre del 2020. A tiempo pleno primaria y 1 er grado de secundaria de forma simultánea, los cinco días de la semana y sin restricciones de alumnos por clase; los restantes grados de este nivel lo hicieron con capacidad al 50%.  Es cada escuela la que decide la organización de sus clases para cumplir con esta norma, que en el caso de la educación especial se aplica "solo cuando es posible teniendo en cuenta las necesidades de los alumnos".
+    <t>Preescolar, primaria y secundaria volvieron a clases presenciales el 1 de septiembre del 2020. A tiempo pleno primaria y 1 er grado de secundaria de forma simultánea, los cinco días de la semana y sin restricciones de alumnos por clase; los restantes grados de este nivel lo hicieron con capacidad al 50%.  Es cada escuela la que decide la organización de sus clases para cumplir con esta norma, que en el caso de la educación especial se aplica "solo cuando es posible teniendo en cuenta las necesidades de los alumnos".
 Tanto en primaria como en secundaria es obligatorio el uso de mascarilla y solo hay clases de educación física en primaria, que siempre que sea posible deben celebrarse en el exterior.  Para el ingreso posterior a las vacaciones decembrinas, se decretó que los educacandos que hubiesen salido al extranjero, deberían guardar una cuarentena de 10 días antes de incorporarse a clases sólo acortable si se da negativo en una PCR realizada el séptimo día tras el regreso.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> La primera semana completa de clases totalmente presenciales fue a partir del lunes 17 de mayo.
+ La primera semana completa de clases totalmente presenciales fue a partir del lunes 17 de mayo.
 El regreso a las clases para todos - Primaria casi siempre ha sido cien por cien presencial-, que se produce a menos de ocho semanas del final del curso escolar, se vivirá, sin embargo, de forma muy diferente en cada centro ya que, según las regiones, unos reducirán los exámenes para dar prioridad a la continuación de las clases y en otros se aplicará la autonomía pedagógica.</t>
-    </r>
   </si>
   <si>
     <t>Si, en proceso</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Salidas escalonadas a recreo,  padres, madres y cuidadores deberán mantener distancia física y acudir solamente un adulto a llevar al educando.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cada clase acogerá un máximo de 24 adolescentes simultáneamente y será obligatorio el uso de mascarillas, utilizar gel hidroalcohólico, respetar las distancias, dar prioridad a las clases de gimnasia al aire libre o impartir las clases con las ventanas abiertas y ventilar las aulas antes y después, así como durante los descansos, para limitar los riesgos de contaminación.</t>
-    </r>
+    <t>Salidas escalonadas a recreo,  padres, madres y cuidadores deberán mantener distancia física y acudir solamente un adulto a llevar al educando.
+Cada clase acogerá un máximo de 24 adolescentes simultáneamente y será obligatorio el uso de mascarillas, utilizar gel hidroalcohólico, respetar las distancias, dar prioridad a las clases de gimnasia al aire libre o impartir las clases con las ventanas abiertas y ventilar las aulas antes y después, así como durante los descansos, para limitar los riesgos de contaminación.</t>
   </si>
   <si>
     <t>https://www.swissinfo.ch/spa/coronavirus-b%C3%A9lgica_los-alumnos-de-secundaria-en-b%C3%A9lgica-vuelven-a-clase/46604732</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Marzo de 2021
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aplicación de la Estrategia "Paso a paso" a partir del 10 de julio del 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">De acuerdo a lo exhibido en el plan, solo se podrá optar a este regreso si es que así lo consideran los sostenedores, en concordancia con lo dispuesto por las autoridades sanitarias, de educación y los alcaldes de cada comuna. La Agencia de Calidad de la Educación pondrá a disposición de las comunidades educativas, por medio de su web, un diagnóstico integral. Las actividades presenciales se enfocarán en tres ejes: recuperación y nivelación de aprendizajes, bienestar socioemocional, y retención y reinserción escolar 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La estrategia "Preparando el regreso contempla la incorporaci´n graual de los alumnos a sus actividades escolares de la forma más normal posible y poniéndo énfasis en la toma de alimentos para prevenir los contagios de covid, Dicha estrategia contempla 5 pilares fundamentales: seguridad y proytección, contenión socioemocional, flexibilidad y gradualidad, centralidad del proceso pedagógico, equidad.
+    <t>Marzo de 2021
+Aplicación de la Estrategia "Paso a paso" a partir del 10 de julio del 2021</t>
+  </si>
+  <si>
+    <t>De acuerdo a lo exhibido en el plan, solo se podrá optar a este regreso si es que así lo consideran los sostenedores, en concordancia con lo dispuesto por las autoridades sanitarias, de educación y los alcaldes de cada comuna. La Agencia de Calidad de la Educación pondrá a disposición de las comunidades educativas, por medio de su web, un diagnóstico integral. Las actividades presenciales se enfocarán en tres ejes: recuperación y nivelación de aprendizajes, bienestar socioemocional, y retención y reinserción escolar 
+La estrategia "Preparando el regreso contempla la incorporaci´n graual de los alumnos a sus actividades escolares de la forma más normal posible y poniéndo énfasis en la toma de alimentos para prevenir los contagios de covid, Dicha estrategia contempla 5 pilares fundamentales: seguridad y proytección, contenión socioemocional, flexibilidad y gradualidad, centralidad del proceso pedagógico, equidad.
 A partir de julio del 2020, se puso en marcha la estrategia Paso a paso que organiza la actividad escolar de la siguiente manera: Como sea, desde ahora la actividad educativa quedará organizada de la siguiente manera: 
 CUARENTENA
 Asistencia: voluntaria / Apertura: de lunes a viernes con autorización del Mineduc (Sin necesidad de autorización si el establecimiento estaba abierto en Transición (Fase 2) y la comuna retrocede)
@@ -1107,7 +958,6 @@
 Asistencia: voluntaria / Apertura: permitida de lunes a viernes
 APERTURA
 Asistencia: Voluntaria / Apertura: permitida de lunes a viernes</t>
-    </r>
   </si>
   <si>
     <t>Sigamos aprendiendo / Paso a paso abramos las escuelas / Chile recupera y aprende / Escuelas arriba
@@ -1118,52 +968,62 @@
     <t xml:space="preserve">si </t>
   </si>
   <si>
+    <t>El Plan Paso a Paso es una estrategia gradual para enfrentar la pandemia según la situación sanitaria de cada zona en particular. Se trata de 4 escenarios o pasos graduales, que van desde la Cuarentena hasta la Apertura Avanzada, con restricciones y obligaciones específicas. El avance o retroceso de un paso particular a otro está sujeta a indicadores epidemiológicos, red asistencial y trazabilidad.
+1) cuarentena 2) transición 3) preparación 4) apertura inicial
+La estrategia Pao a pasom contempla el protocolo "Preparando el regreso" que contiene tiene una serie de medidas para el regreso presencial donde se contemplan las medidas sanitarias que las escuelas deben implemnetar.para el retorno . Dicho protocolo debe realizarse ada 24 horas en los centros educativos. Se les da a las escuelas  un kit de limpieza básico con mascarillas, alcohol en gel, jabón, escudo facial, termómetros y sets de limpieza para las instalaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.colegiodeprofesores.cl/wp-content/uploads/2020/07/PlanRetornoAClases-08.06.pdf
+https://chile.as.com/chile/2021/07/08/actualidad/1625770036_734481.html
+https://www.unicef.org/chile/informes/aprendizajes-educacion-parvularia-medidas
+</t>
+  </si>
+  <si>
+    <t>Se realizaron los LINEAMIENTOS PARA LA PRESTACIÓN DEL SERVICIO DE
+EDUCACIÓN EN CASA Y EN PRESENCIALIDAD BAJO EL
+ESQUEMA DE ALTERNANCIA Y LA IMPLEMENTACIÓN DE
+PRÁCTICAS DE BIOSEGURIDAD EN LA COMUNIDAD EDUCATIVA, en los cuales se mencionan los aspectos que deben cubrirse respecto a las medidas sanitarias y la gestión de los aprendizajes por parte de los territorios, autoridades locales y las propias escuelas</t>
+  </si>
+  <si>
+    <t>https://www.mineducacion.gov.co/1759/articles-399094_recurso_1.pdf</t>
+  </si>
+  <si>
+    <t>Corea del Sur</t>
+  </si>
+  <si>
+    <t>Julio de 2021</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">El Plan Paso a Paso es una estrategia gradual para enfrentar la pandemia según la situación sanitaria de cada zona en particular. Se trata de 4 escenarios o pasos graduales, que van desde la Cuarentena hasta la Apertura Avanzada, con restricciones y obligaciones específicas. El avance o retroceso de un paso particular a otro está sujeta a indicadores epidemiológicos, red asistencial y trazabilidad.
-1) cuarentena 2) transición 3) preparación 4) apertura inicial
-</t>
+      <t>Para poder abordar esa nueva realidad, s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e fortalece el modelo pedagógico</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="8"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>La estrategia Pao a pasom contempla el protocolo "Preparando el regreso" que contiene tiene una serie de medidas para el regreso presencial donde se contemplan las medidas sanitarias que las escuelas deben implemnetar.para el retorno . Dicho protocolo debe realizarse ada 24 horas en los centros educativos. Se les da a las escuelas  un kit de limpieza básico con mascarillas, alcohol en gel, jabón, escudo facial, termómetros y sets de limpieza para las instalaciones.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.colegiodeprofesores.cl/wp-content/uploads/2020/07/PlanRetornoAClases-08.06.pdf
-https://chile.as.com/chile/2021/07/08/actualidad/1625770036_734481.html
-https://www.unicef.org/chile/informes/aprendizajes-educacion-parvularia-medidas
-</t>
-  </si>
-  <si>
-    <t>Se realizaron los LINEAMIENTOS PARA LA PRESTACIÓN DEL SERVICIO DE
-EDUCACIÓN EN CASA Y EN PRESENCIALIDAD BAJO EL
-ESQUEMA DE ALTERNANCIA Y LA IMPLEMENTACIÓN DE
-PRÁCTICAS DE BIOSEGURIDAD EN LA COMUNIDAD EDUCATIVA, en los cuales se mencionan los aspectos que deben cubrirse respecto a las medidas sanitarias y la gestión de los aprendizajes por parte de los territorios, autoridades locales y las propias escuelas</t>
-  </si>
-  <si>
-    <t>https://www.mineducacion.gov.co/1759/articles-399094_recurso_1.pdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Para poder abordar esa nueva realidad, se fortalece el modelo pedagógico, que
+      <t xml:space="preserve">, que
 tiene como meta los aprendizajes esperados y las habilidades, a partir de
 dimensiones como:
 • Maneras de pensar, cuyo objetivo es el desarrollo cognitivo de cada persona, a través
@@ -1174,25 +1034,52 @@
 requeridas, a fin de desarrollar sinergias con otras personas mediante la
 comunicación y la colaboración
 • Herramientas para integrarse al mundo, apropiación de las tecnologías digitales, así
-como la responsabilidad que conlleva el manejo de los mensajes y el uso de la información
-</t>
+como la responsabilidad que conlleva el manejo de los mensajes y el uso de la </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Para la palicación de la estrategia se contemplan algunas medidas como las siguientes: Para centros educativos públicos, privados y colegios técnicos que cuenten con la estructura adecuada, la duración de cada jornada en la modalidad presencial será de 8 horas máximo al día. Si no cuentan con la estructura física suficiente, la jornada máxima debe ser de 5 horas en la mañana y 5 horas en la tarde.
-El orden de ingreso será de acuerdo con los siguientes niveles:
-Preescolar: Transición
-Primaria: Quinto y sexto año
-Secundaria: Décimo y undécimo año
-Educación Técnica: Undécimo y duodécimo año.
-En las escuelas unidocentes se aceptará la totalidad del estudiantado en el curso, siempre que sea posible mantener el distanciamiento físico de 1,8 metros.</t>
-    </r>
+  </si>
+  <si>
+    <t>“Yo me cuido, yo te cuido, la comunidad se cuida”y "Regresar"</t>
+  </si>
+  <si>
+    <t>Las actividades que se realizan en el marco de la estrategia para generar los productos en el corto 
+plazo, los efectos en el mediano plazo y los impactos anteriormente mencionados en el largo plazo, 
+son: 
+ Conformar mesas de trabajo para análisis de las premisas. 
+ Realizar un diagnóstico sobre las condiciones de infraestructura de los centros educativos. 
+ Establecer una estrategia de participación y comunicación de la Estrategia “Regresar” para 
+todos los actores involucrados. 
+ Identificar la población con mayor nivel de vulnerabilidad a partir del análisis del índice de 
+vulnerabilidad. 
+ Elaborar  un  plan  de  apertura  para  cada  centro  educativo  que  garantice  el  regreso  a  la 
+presencialidad de la población educativa de todas las ofertas y modalidades educativas. 
+ Elaborar los protocolos específicos sanitarios para garantizar un riesgo mínimo de contagio 
+del Covid-19 durante el regreso a la presencialidad de la población educativa de todas las 
+ofertas y modalidades educativas, así como actualizar estos protocolos de conformidad con 
+la evolución de la pandemia. 
+ Difusión y asesoramiento a estudiantes y personal de los centros educativos y las DRE para 
+el uso de protocolos. 
+ Verificar la implementación de los protocolos específicos sanitarios 
+ Conformar las comisiones institucionales de riesgo. 
+ Habilitar  de  plataforma Microsoft  Teams  para  el  uso de  docentes  y  personas estudiantes 
+promoviendo su utilización. 
+ Generación de  acciones  para el fortalecimiento de  las condiciones  y recursos con los que 
+cuentan los centros educativos, que aseguren un retorno seguro a la presencialidad.  
+ Diseñar y divulgar las orientaciones para la mediación pedagógica en educación combinada. 
+ Diseñar y divulgar las orientaciones para la evolución del aprendizaje en el aula y 
+estandarizada (FARO, Educación Abierta). 
+ Elaborar los instrumentos de apoyo Educativo y tecnológico para el aprendizaje. 
+ Diseñar y divulgar las orientaciones para la participación estudiantil. 
+ Establecer el rol de los actores en el servicio presencial y a distancia. 
+ Definir los lineamientos técnicos para el proceso de evaluación. 
+ Diseñar y divulgar los instrumentos de Evaluación de los aprendizajes esperados. 
+ Establecer  los  instrumentos  de  seguimiento  para  la  implementación  de  la  Estrategia 
+“Regresar”</t>
+  </si>
+  <si>
+    <t>https://www.monumental.co.cr/2021/07/02/ministra-de-educacion-confirma-inminente-regreso-a-clases-el-proximo-12-de-julio/
+https://www.mep.go.cr/sites/default/files/page/adjuntos/orientaciones-educacion-combinada-02-03-21.pdf
+https://www.presidencia.go.cr/comunicados/2021/02/regreso-a-clases-el-retorno-a-la-presencialidad-es-una-decision-pais/
+https://www.mep.go.cr/sites/default/files/inf-estrategia-regresar.pdf</t>
   </si>
   <si>
     <t>Protocolo para las escuelas:
@@ -1218,25 +1105,8 @@
     <t>https://www.mined.gob.cu/reiniciara-curso-escolar-en-cuba-el-proximo-6-de-septiembre/    https://www.radioreloj.cu/noticias-radio-reloj/educacion/retorno-a-las-aulas-habaneras/       https://andina.pe/agencia/noticia-cuba-iniciara-junio-proceso-vacunacion-su-propia-vacuna-anticovid-838677.aspx    https://www.mined.gob.cu/reitera-mined-cumplimiento-de-medidas-frente-a-la-covid-19/#  ; https://medicinaysaludpublica.com/noticias/salud-publica/lenta-inmunizacion-en-el-caribe-incluyendo-cuba-y-haiti/8395  ; https://www.radionuevitas.icrt.cu/cuba/7307-desmiente-ministra-de-educacion-reinicio-de-curso-escolar-en-cuba.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">30% de matricula en escuelas,  principalmente en zonas rurales donde ya se aplico un programa piloto. La jornada se mantendrá de manera regular de lunes a viernes de manera extendida, que son ocho horas de asistencia.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Las actividades escolares se desarrollarán en 3 fases, las cuales contemplan las siguientes fases:
+    <t xml:space="preserve">30% de matricula en escuelas,  principalmente en zonas rurales donde ya se aplico un programa piloto. La jornada se mantendrá de manera regular de lunes a viernes de manera extendida, que son ocho horas de asistencia.
+Las actividades escolares se desarrollarán en 3 fases, las cuales contemplan las siguientes fases:
  1: Aprendamos juntos en casa. – Esta fase inició con la declaración
 de emergencia sanitaria en el Ecuador por parte del Ministerio de Salud Pública -MSP-; la
 cuarentena y el estado de excepción decretados por el Gobierno Nacional. Durante esta
@@ -1254,28 +1124,10 @@
 declare como superada la emergencia sanitaria producida por el COVID-19 en todo el
 territorio ecuatoriano. Una vez que esto suceda, la Autoridad Educativa Nacional emitirá
 los lineamientos necesarios para el desarrollo, planificación y ejecución de esta fase. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cubrebocas, zonas de lavado de manos, aplicación de gel antibacterial y no prestar material.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El proceso educativo que se aplicará en el
+  </si>
+  <si>
+    <t>Cubrebocas, zonas de lavado de manos, aplicación de gel antibacterial y no prestar material.
+ El proceso educativo que se aplicará en el
 sistema educativo ecuatoriano, durante e inmediatamente después de que se declare como
 superada la emergencia sanitaria en el país producida por COVID-19, está compuesto por
 tres fases:
@@ -1283,7 +1135,6 @@
 b. Fase 2: Juntos aprendemos y nos cuidamos
 c. Fase 3: Todos de regreso a la escuela
 Se desarrolló el protocolo para el autocuidado e higiene de la población educativa durante el uso progresivo de las instalaciones educativas covid 19, en el cual se establecen medidas como: uso obligatorio de mascarilla, lavado frecuente de manos, desinfección de áreas, distancia de 2m. Así como algunas medidas referentes a traslado y protocolos en casa de lso estudiantes</t>
-    </r>
   </si>
   <si>
     <t>https://educacion.gob.ec/plan-de-continuidad-educativa/
@@ -1291,25 +1142,8 @@
 https://educacion.gob.ec/wp-content/uploads/downloads/2020/09/MINEDUC-MINEDUC-2020-00044-A.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Comunidad Autónoma de Madrid. Las escuelas han reabierto y cerrado ya varias ocasiones, el cierre de las mismas esta condicionado al desarrollo epidemiológico local. Los niños de 0 a 3 años asistirán todos los alumnos de manera presencial. Para el resto de educación básica se reduce el número de alumnos a grupos estables de máximo 20 personas. Modelo híbrido semipresencial. Modelos de rotación (burbujas de trabajo). 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clases presenciales:
+    <t xml:space="preserve">Comunidad Autónoma de Madrid. Las escuelas han reabierto y cerrado ya varias ocasiones, el cierre de las mismas esta condicionado al desarrollo epidemiológico local. Los niños de 0 a 3 años asistirán todos los alumnos de manera presencial. Para el resto de educación básica se reduce el número de alumnos a grupos estables de máximo 20 personas. Modelo híbrido semipresencial. Modelos de rotación (burbujas de trabajo). 
+Clases presenciales:
 En el primer ciclo de Educación Infantil (0-3 años) acudirán todos los alumnos de manera presencial. Los padres podrán acompañar a sus hijos con mascarilla y haciendo uso de gel hidroalcohólico.
 Los educadores deberán permanecer con un grupo estable de convivencia, mientras que los de apoyo deberán extremar al máximo las medidas de prevención sanitaria.
 Segundo ciclo de Educación Infantil y Educación Primaria
@@ -1318,40 +1152,13 @@
 Educación especial: Los padres decidirán, teniendo en cuenta el criterio médico, la asistencia de sus hijos a los centros. La educación será presencial con la creación de grupos de convivencia de un máximo de 8 alumnos.
 Las pruebas y controles sanitarios se reforzarán de una manera muy notable en este tipo de educación
 Clases semipresenciales:
-Para los alumnos de 3º, 4º de la ESO, Bachillerato, FP y Educación para Adultos, la educación será semipresencial, pero se deberá garantizar la asistencia al centro de los alumnos entre un tercio y la mitad del horario semanal: los estudiantes podrán acudir días alternos a clase o establecer franjas horarias de cuatro horas cada día.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+Para los alumnos de 3º, 4º de la ESO, Bachillerato, FP y Educación para Adultos, la educación será semipresencial, pero se deberá garantizar la asistencia al centro de los alumnos entre un tercio y la mitad del horario semanal: los estudiantes podrán acudir días alternos a clase o establecer franjas horarias de cuatro horas cada día.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se crea un coodinador COVID-19 por centro escolar. Se realizan pruebas PCR a niños y personal de educación al inicio del curso escolar. Se toma la temperatura a la entrada. Mascarilla obligatoria para los alumnos a partir de 6 años, cuando la pandemia evolucione de una manera favorable el límite de edad se elevará a 11 años. Se suministrará mascarillas y gel entre alumnos y profesores.
+  </si>
+  <si>
+    <t xml:space="preserve">Se crea un coodinador COVID-19 por centro escolar. Se realizan pruebas PCR a niños y personal de educación al inicio del curso escolar. Se toma la temperatura a la entrada. Mascarilla obligatoria para los alumnos a partir de 6 años, cuando la pandemia evolucione de una manera favorable el límite de edad se elevará a 11 años. Se suministrará mascarillas y gel entre alumnos y profesores.
 En la Comunidad de Madrid se establece:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Creación del coordinador COVID-19 por centro. Se les suministrará EPIS para tratar con casos sospechosos y posibles
+Creación del coordinador COVID-19 por centro. Se les suministrará EPIS para tratar con casos sospechosos y posibles
 Pruebas de test de anticuerpos a todos los docentes y personal de apoyo de la educación pública y concertada al inicio del curso escolar
 Estudio serológico, denominado SeroCOL, con el que se realizarán 42.500 test a 13.000 estudiantes y 1.500 profesores en tres momentos temporales diferentes (septiembre y diciembre de 2020 y marzo de 2021)
 Pruebas PCR a los alumnos y profesores de los centros de Educación Especial, tanto al inicio del curso como a lo largo de éste, de forma periódica
@@ -1359,7 +1166,6 @@
 Mascarilla obligatoria en el centro educativo para los alumnos a partir de 6 años en el centro educativo, incluida en las clases. Cuando la pandemia evolucione de una manera favorable, este límite de edad se elevará a los mayores de 11 años
 Se suministrarán 650.000 litros de gel hidroalcohólico y 9.500.000 mascarillas entre alumnos y profesores
 Se recomienda que las personas mayores no acompañen a los alumnos a los centros </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Tanto los proveedores de formación como el personal docente y mentor deben asegurarse de que los estudiantes sean contactados activa y regularmente. La interacción entre compañeros entre los estudiantes también promueve el aprendizaje, y los estudios se pueden diseñar para que sean lo más interactivos posible. El personal docente y de supervisión debe prestar atención a la carga total de estudios para que los estudiantes tengan tiempo de recuperarse de sus estudios. </t>
@@ -1371,43 +1177,18 @@
     <t>https://convenioandresbello.org/recursos-educativos/finlandia-2021/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cuenten con protocolos de bioseguridad  y que en las aulas haya materiales de apoyo psicosocial y guías de aprendizaje.
+    <t>Cuenten con protocolos de bioseguridad  y que en las aulas haya materiales de apoyo psicosocial y guías de aprendizaje.
 Concientización con la comunidad educativa por parte del docente, apoyo emocional a estudiantes, organización física de ambientes
 seguros y las divisiones en burbujas (cohortes).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se debe considerar con base en el documento
+Se debe considerar con base en el documento
 «Plan de regreso a clases» lo siguiente:
 • Organizar la asistencia de los estudiantes por grados, niveles, días, horarios de ingreso y salida, de acuerdo con el contexto de la comunidad y el desarrollo del currículo.
 • La Comisión de Evaluación puede realizar sus aportes al proceso para asegurar la vinculación con la evaluación de los aprendizajes.
 • Complementar las horas necesarias para cumplir con la entrega educativa por medio de la modalidad híbrida o en casa.
 • Alternar la enseñanza de las áreas, con grupos reducidos para garantizar el distanciamiento físico establecido y de acuerdo con el diagnóstico realizado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mantener a las personas
+  </si>
+  <si>
+    <t>Mantener a las personas
 sintomáticas en casa, lavado de manos,
 distanciamiento físico y social, disponibilidad
 de agua, saneamiento, higiene y ventilación.
@@ -1415,20 +1196,9 @@
 y de forma correcta la mascarilla
 asegurándose de cubrir por completo la
 boca y nariz. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En Guatemala, se realizaron los siguientes protocolos para el retorno a clases:
+En Guatemala, se realizaron los siguientes protocolos para el retorno a clases:
 Protocolo Institucional del Ministerio de Educación
 protocolos para el regreso a clases dirigifdos a: Directores departamentales de educación, para supervisores de los centros educativos, para directores y docentes de los centros educativos, Protocolo para el regreso a los epacios de Aprendizaje, protocolo de apoyo emocional y resiliencia, Recomendaciones para el transporte escolar, Guía para medidas de prevención ante el COVID, Protocolo para el docente en caso de posible contagio</t>
-    </r>
   </si>
   <si>
     <t>https://aprendoencasayenclase.mineduc.gob.gt/images/sampledata/asimages/regreso-a-clases/PROTOCOLO-Institucional-del-Ministerio-de-Educacion.pdf
@@ -1448,43 +1218,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El 1 de febrero, el Departamento de Educación acordó reabrir las escuelas especiales con un 50% de capacidad el jueves 11 de febrero y las clases especiales en las escuelas ordinarias el lunes 22 de febrero. [82] [83] [84] El jueves 11 de febrero, hasta 4.000 niños con necesidades educativas adicionales regresaron a la educación presencial cuando las escuelas especiales de todo el país reabrieron sus puertas, según los planes acordados entre el Departamento de Educación y los sindicatos de maestros y SNA. . [85] [86] [87]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En marzo, seegún el nuevo plan revisado Living with COVID-19 del Gobierno de Irlanda llamado "The Path Ahead"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,  se inicio con clases en los niveles primario y postprimario, el Gobierno ha decidido un regreso gradual de los estudiantes a la educación en la escuela. Etapas:
+      <t xml:space="preserve">El 1 de febrero, el Departamento de Educación acordó reabrir las escuelas especiales con un 50% de capacidad el jueves 11 de febrero y las clases especiales en las escuelas ordinarias el lunes 22 de febrero. [82] [83] [84] El jueves 11 de febrero, hasta 4.000 niños con necesidades educativas adicionales regresaron a la educación presencial cuando las escuelas especiales de todo el país reabrieron sus puertas, según los planes acordados entre el Departamento de Educación y los sindicatos de maestros y SNA. . [85] [86] [87]
+En marzo, seegún el nuevo plan revisado Living with COVID-19 del Gobierno de Irlanda llamado "The Path Ahead",  se inicio con clases en los niveles primario y postprimario, el Gobierno ha decidido un regreso gradual de los estudiantes a la educación en la escuela. Etapas:
 El lunes 1 de marzo, los cuatro primeros grupos de clases del nivel primario - Infantes de primer y último año, primera y segunda clase - y los alumnos del Leaving Certificate de último año volverán a la oferta escolar. Esta fase también verá un regreso a la asistencia total para los niños en las escuelas especiales, así como para los niños en las clases preescolares de inicio temprano y las clases especiales de intervención temprana para los niños con autismo o discapacidad auditiva.
 El lunes 15 de marzo es la fecha límite para el regreso a la oferta escolar del resto de los niños de la escuela primaria - estudiantes de tercer a sexto curso y quinto año del Leaving Certificate. Esta fecha se revisará durante el período posterior al 1 de marzo.
 El lunes 12 de abril, después de las vacaciones de Semana Santa, es la fecha límite para el regreso a la educación escolar del resto de estudiantes de posprimaria, estudiantes de primero a cuarto año.
@@ -1494,7 +1229,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1503,48 +1238,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">De vuelta a escuela
+"The Path Ahead", 
+</t>
+  </si>
+  <si>
+    <t>https://gaz.wiki/wiki/es/Impact_of_the_COVID-19_pandemic_on_education_in_the_Republic_of_Ireland</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">De vuelta a escuela
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"The Path Ahead", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>https://gaz.wiki/wiki/es/Impact_of_the_COVID-19_pandemic_on_education_in_the_Republic_of_Ireland</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Se inició con alumnos de preescolar y de los primeros cuatro cursos de primaria. 20% del alumnado, el 80% restante (1,9 millones de estudiantes) seguirá con clases virtuales, y su vuelta se hará en varias fases para evitar un nuevo pico de infecciones.
 Primera fase, preescolar y hasta los 10 años, en las llamadas zonas verdes, con bajo índice de morbilidad, o en las que más de un 70% de la población por encima de los 50 años ha sido vacunada.
 La segunda fase, a partir del 23 de febrero, contempla la vuelta a las aulas a partir de los 10 a los 18 años en ciudades con bajo índice de contagios o con más del 70% de vacunación.
@@ -1555,27 +1257,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1588,7 +1281,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1601,7 +1294,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1611,60 +1304,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Es el segundo intento de reincoporación, la primera fue en agosto 2020.
+    <t>Es el segundo intento de reincoporación, la primera fue en agosto 2020.
 El Ministerio de Educación había dado instrucciones de seguridad: los cubrebocas debían ser usados por los estudiantes a partir de cuarto grado, las ventanas tenían que estar abiertas, debían lavarse las manos con frecuencia y los estudiantes tenían que mantener una distancia de dos metros siempre que fuera posible.
 Para la reincorporación a clases en el año 2021 se utilizará el modelo "10-4"desarrollado por los científicos Uri Alon y Ron Milo, y se basa en el período de latencia del virus, es decir, el lapso que transcurre entre que una persona se contagia y pasa a ser contagiosa para los demás. Ese tiempo se calcula en tres días y de ahí surge el modelo: 4 días en la escuela (de lunes a jueves) y 10 días de confinamiento, lo que da oportunidad para ingresar a un nuevo grupo de alumnos y se reduzca la posibilidad de segregación de la enfermedad.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Para el ciclo 21-22 se prevee aumentar el número de salas para disminuir los estudiantes reunidos en un espacio y que en caso de brotes los menores vacunados pueden reanudar los estudios si dan negativo a un test rápido, mientras que los no inmunizados deben permanecer una semana en cuarentena.
+Para el ciclo 21-22 se prevee aumentar el número de salas para disminuir los estudiantes reunidos en un espacio y que en caso de brotes los menores vacunados pueden reanudar los estudios si dan negativo a un test rápido, mientras que los no inmunizados deben permanecer una semana en cuarentena.
 nfatizando en la importancia de que la mayor cantidad de niños desde los 12 años sean vacunados y aquellos que no cumplan podrían exigirles un examen negativo para poder retornar a clases este semestre, cuyo costo correrá por parte de los padres o tutores de los menores.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https://www.lavanguardia.com/vida/20210211/6239456/israel-da-paso-desescalada-e-inicia-apertura-sistema-educativo.html
+  </si>
+  <si>
+    <t>https://www.lavanguardia.com/vida/20210211/6239456/israel-da-paso-desescalada-e-inicia-apertura-sistema-educativo.html
 https://www.youtube.com/watch?v=LwRi4PwzAJY 
 https://www.nytimes.com/es/2020/08/06/espanol/mundo/abrir-escuelas-israel-coronavirus.html 
 https://elpais.com/sociedad/2021-03-08/israel-regresa-a-la-normalidad-tras-un-ano-de-pandemia-mientras-en-palestina-se-reimpone-el-confinamiento.html
 https://www.latercera.com/earlyaccess/noticia/vacunacion-nuevos-protocolos-y-dudas-el-retorno-a-clases-presenciales-en-el-mundo/CU753Z5SHBFGNG5QPZWAVESBCQ/
 https://www.infobae.com/educacion/2020/06/13/el-metodo-10-4-las-claves-del-modelo-israeli-que-aplicaria-la-ciudad-de-buenos-aires-para-volver-a-las-aulas/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://as.com/diarioas/2021/06/20/actualidad/1624186462_891589.html
+https://as.com/diarioas/2021/06/20/actualidad/1624186462_891589.html
 https://www.topprofes.com/israel-ha-dicho-que-probablemente-retrasara-la-reapertura-de-la-frontera-para-la-mayoria-de-los-turistas-hasta-septiembre/</t>
-    </r>
   </si>
   <si>
     <t>https://as.com/diarioas/2021/06/20/actualidad/1624186462_891589.html
@@ -1675,12 +1329,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Estaban incorporados, sin embargo el 06 de marzo se cerraron las escuelas por altas tasas de contagios. Principalmente en las regiones del sur, Basilicata y Molise, son actualmente zonas rojas.
 De acuerdo con el Comunicado de prensa del Consejo de Ministros n. 10, del 7 al 30 de abril de 2021 la realización en presencia de los servicios educativos para la infancia y el jardín de infancia, así como la actividad didáctica del primer ciclo de educación y el primer año de Bachillerato. Para los grados posteriores de educación, las actividades se confirman en presencia del 50% al 75% de la población estudiantil en la zona naranja mientras que en la zona roja las actividades relacionadas se realizan a distancia, garantizando en todo caso la posibilidad de Realización de actividades presenciales para los alumnos con discapacidad y necesidades educativas especiales.
 </t>
@@ -1689,7 +1337,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1700,12 +1348,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">En regiones como Lombardía el regreso a clases presenciales se realizó con un aforo del 50% de los alumnos, escalonados en dos tandas: un 35% entró a las 8:00 am, y el restante 15% entró a las 9:30am, esto para evitar aglomeraciones. Sin embargo, el gobierno italiano decretó la habilitación para el regreso a clases en todo el país con presencia de entre el 50% y el 75% de la capacidad, siguiendo medidas de limpieza e higiene, dentro de las cuales se resalta el uso de mascarilla obligatorio, mantener medidas de distanciamiento social y la limpieza de los salones y el material de las escuelas.
 </t>
     </r>
@@ -1713,7 +1355,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1723,31 +1365,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https://www.reuters.com/article/salud-health-coronavirus-italia-escuelas-idESKCN2AU2GR
+    <t>https://www.reuters.com/article/salud-health-coronavirus-italia-escuelas-idESKCN2AU2GR
 https://www.efe.com/efe/espana/sociedad/roma-y-su-region-empiezan-a-vacunar-los-profesores/10004-4470819 
 https://www.governo.it/it/articolo/comunicato-stampa-del-consiglio-dei-ministri-n-10/16525 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/</t>
-    </r>
+https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/</t>
   </si>
   <si>
     <t>https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/</t>
@@ -1762,51 +1383,15 @@
     <t>https://convenioandresbello.org/recursos-educativos/noruega-2021/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Los padres através de una app deciden si sus hijos asisten de manera presencial o no. Para las clases presenciales se crean grupos que asistiran de manera intercalada. Cada grupo estará conformada por máximo 15 personas. Los días de clases presenciales serán por grupos. APP para control de los grupos, distanciamiento social en el aula, uso de cubre bocas obligatorio.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El retorno seguro a las aulas, contempla dos fases diferenciadas:
+    <t>Los padres através de una app deciden si sus hijos asisten de manera presencial o no. Para las clases presenciales se crean grupos que asistiran de manera intercalada. Cada grupo estará conformada por máximo 15 personas. Los días de clases presenciales serán por grupos. APP para control de los grupos, distanciamiento social en el aula, uso de cubre bocas obligatorio.
+El retorno seguro a las aulas, contempla dos fases diferenciadas:
 la primera, denominada fase preparatoria, establece los lineamientos a seguir a fin de crear las condiciones de infraestructura, logísticas y de organización de docentes y estudiantes que permitan un retorno seguro, gradual y ordenado al local educativo.
 La segunda fase, o de retorno efectivo, define los acuerdos y normas que permitirán que los grupos de estudiantes y docentes puedan desarrollar sus diferentes actividades de manera segura, desde el ingreso, durante la permanencia y a la salida del recinto educativo. Establecerá también y los procedimientos para una respuesta rápida ante eventos que requieran el aislamiento temporal de personas o la suspensión de actividades presenciales debido a casos positivos de COVID-19 entre los integrantes de la comunidad educativa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se crea una APP para el control de los asistentes de cada grupos escolar. Distanciamiento social en el aula, uso de cubre bocas obligatorio, higiene de manos mediante uso de gel antibacterial antes del ingreso, antes y despues del receso, antes y despues de manipulación de objetos y de consumir alimentos, ventilación: puertas  y ventanas siempre abiertas aun con aire acondicionado. Zonas de circulación señalizadas en el piso, horarios escalonados de entreda, recreo y salida.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">En el protocolo establecido, se mencionan tres medidas que son obligatorias par el retorno: uso de mascarilla, lavado periodico de manos y distanciamiento social. 
+  </si>
+  <si>
+    <t xml:space="preserve">Se crea una APP para el control de los asistentes de cada grupos escolar. Distanciamiento social en el aula, uso de cubre bocas obligatorio, higiene de manos mediante uso de gel antibacterial antes del ingreso, antes y despues del receso, antes y despues de manipulación de objetos y de consumir alimentos, ventilación: puertas  y ventanas siempre abiertas aun con aire acondicionado. Zonas de circulación señalizadas en el piso, horarios escalonados de entreda, recreo y salida.
+En el protocolo establecido, se mencionan tres medidas que son obligatorias par el retorno: uso de mascarilla, lavado periodico de manos y distanciamiento social. 
 Tambiéns e establecen las emdidas de organización de los grupos y la forma de organización de la escuela en torno a las medidas sanitarias </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.unicef.org/lac/media/17656/file
@@ -1823,52 +1408,51 @@
     <t>https://www.eluniversal.com.mx/mundo/paises-dan-lecciones-del-regreso-clases</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>si</t>
   </si>
   <si>
+    <t>En el marco de lo dispuesto en la RM 121-2021-MINEDU, comunica (el Minedu) que a partir del 19 de abril las IIEE y programas educativos podrán brindar el servicio educativo con algún nivel de presencialidad. El retorno será seguro, flexible, gradual y voluntario. “El Ministerio de Educación, en coordinación con los gobiernos regionales y locales, desarrolla acciones de articulación intergubernamental e intersectorial para asegurar las mejores condiciones de salud y seguridad para todos los estudiantes, docentes y administrativos. Así, niñas, niños y adolescentes seguirán aprendiendo con el objetivo de continuar con sus trayectorias educativas y su formación como ciudadanos
+Se establecen como dedidas generales: distanciamiento social, lavado de manos, higiene respiratoria y etiquetado de estornudo, desinfección de calzado, control de temperatura y .Dichas medidas reflejadas en la resolución ministeial para el inicio de clases.</t>
+  </si>
+  <si>
+    <t>https://cdn.www.gob.pe/uploads/document/file/871394/RVM_N__116-2020-MINEDU.pdf</t>
+  </si>
+  <si>
+    <t>Sin información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseñar un plan de estudios amplio y ambicioso en todas las materias.
+Cuando proceda, se debe priorizar el tiempo de enseñanza para abordar las lagunas más importantes en el conocimiento de los alumnos.
+Debe asegurarse de que la planificación del plan de estudios se base tanto en una evaluación de los puntos de partida de los alumnos como en las lagunas en sus conocimientos, y una comprensión de cuál es el contenido más crítico para la progresión. Para lograr esto, es posible que deba realizar modificaciones sustanciales en su plan de estudios y debe hacer un uso efectivo de la evaluación formativa regular evitando la introducción de sistemas de seguimiento innecesarios.
+Puede utilizar las flexibilidades existentes para crear tiempo para cubrir el contenido más importante en el que los alumnos aún no están seguros.
+</t>
+  </si>
+  <si>
+    <t>Con algunas excepciones, el uso del cubrebocas ha sido obligatorio en todos los países europeos durante 2021.
+también incluían mantener las aulas ventiladas, además de intentar que haya distancia entre profesores, estudiantes y padres.
+El uso de un sistema híbrido ha sido una opción implementada por algunas regiones para ir gradualmente volviendo a una operación completamente presencial.
+En Reino Unido, el ministerio de Educación ha solicitado a los estudiantes de educación secundaria y universitaria que se realicen un test de COVID-19 antes de volver a clase el 7 de junio, cuando terminaron las vacaciones de mitad de año académico</t>
+  </si>
+  <si>
+    <t>https://dfemedia.blog.gov.uk/2021/03/09/back-to-school-week-everything-you-need-to-know/
+https://www.gov.uk/government/publications/actions-for-schools-during-the-coronavirus-outbreak/schools-coronavirus-covid-19-operational-guidance#curriculum
+https://expansion.mx/mundo/2021/06/15/como-ha-sido-el-regreso-a-clase-en-pandemia-en-europa</t>
+  </si>
+  <si>
+    <t>Los establecimientos de nivel inicial y primario nunca cerraron. Recae en una decisión familiar la continuidad de los estudios en la presencialidad o a distancia. En el caso de optar por el segundo –algo que se dio con mayor recurrencia-, cada escuela fue la responsable de diseñar e implementar la enseñanza a distancia.Los establecimientos secundarios (pertenecientes a la escuela no obligatoria) así como las universidades permanecieron cerrados por decisión del gobierno nacional. Para la escuela secundaria, el retorno se determinó a partir del 15 de junio de forma obligatoria y presencial, respetando las determinaciones de la Agencia de Salud Pública.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">En el marco de lo dispuesto en la RM 121-2021-MINEDU, comunica (el Minedu) que a partir del 19 de abril las IIEE y programas educativos podrán brindar el servicio educativo con algún nivel de presencialidad. El retorno será seguro, flexible, gradual y voluntario. “El Ministerio de Educación, en coordinación con los gobiernos regionales y locales, desarrolla acciones de articulación intergubernamental e intersectorial para asegurar las mejores condiciones de salud y seguridad para todos los estudiantes, docentes y administrativos. Así, niñas, niños y adolescentes seguirán aprendiendo con el objetivo de continuar con sus trayectorias educativas y su formación como ciudadanos
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se establecen como dedidas generales: distanciamiento social, lavado de manos, higiene respiratoria y etiquetado de estornudo, desinfección de calzado, control de temperatura y .Dichas medidas reflejadas en la resolución ministeial para el inicio de clases.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://cdn.www.gob.pe/uploads/document/file/871394/RVM_N__116-2020-MINEDU.pdf</t>
-  </si>
-  <si>
-    <t>Los establecimientos de nivel inicial y primario nunca cerraron. Recae en una decisión familiar la continuidad de los estudios en la presencialidad o a distancia. En el caso de optar por el segundo –algo que se dio con mayor recurrencia-, cada escuela fue la responsable de diseñar e implementar la enseñanza a distancia.Los establecimientos secundarios (pertenecientes a la escuela no obligatoria) así como las universidades permanecieron cerrados por decisión del gobierno nacional. Para la escuela secundaria, el retorno se determinó a partir del 15 de junio de forma obligatoria y presencial, respetando las determinaciones de la Agencia de Salud Pública.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Recomendaciones de la Agencia de Educación Nacional para el comienzo del </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1878,7 +1462,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1902,26 +1486,7 @@
     <t>No (Posiblemente en ocrubre con la vacuna Abdalá)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https://mundo.sputniknews.com/20210701/presidente-venezolano-anuncia-retorno-presencial-a-clases-en-octubre-1113726536.html </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;  https://www.vtv.gob.ve/asesorias-pedagogicas-escuelas-liceos-universidades-semanas-flexibilizacion/  ; https://mundo.sputniknews.com/20210325/en-julio-comienza-inmunizacion-masiva-en-venezuela-con-vacuna-cubana-abdala-1110443383.html</t>
-    </r>
+    <t>https://mundo.sputniknews.com/20210701/presidente-venezolano-anuncia-retorno-presencial-a-clases-en-octubre-1113726536.html ;  https://www.vtv.gob.ve/asesorias-pedagogicas-escuelas-liceos-universidades-semanas-flexibilizacion/  ; https://mundo.sputniknews.com/20210325/en-julio-comienza-inmunizacion-masiva-en-venezuela-con-vacuna-cubana-abdala-1110443383.html</t>
   </si>
   <si>
     <t>Nota: se contabilizan 37 países de la OCDE, de los cuales se procedió a la búsqueda de 20 de ellos. De los 17 casos que se excluyeron, la mayoría corresponden a países de europa del este. De América Latina se excluyeron 5 casos, además de las islas; sí se incluye Cuba.</t>
@@ -1943,9 +1508,6 @@
   </si>
   <si>
     <t>Guyana Francesa</t>
-  </si>
-  <si>
-    <t>Corea del Sur</t>
   </si>
   <si>
     <t>Eslovaquia</t>
@@ -2030,7 +1592,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2060,6 +1622,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2076,13 +1645,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2090,7 +1652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2098,7 +1660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2114,7 +1676,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2130,7 +1692,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="8"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2138,23 +1700,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2296,29 +1842,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,13 +1865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2357,7 +1883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,139 +2231,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2834,9 +2372,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2856,257 +2394,217 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3115,7 +2613,7 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3127,10 +2625,10 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3139,7 +2637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3148,7 +2646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3157,10 +2655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3743,48 +3241,48 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="106">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="106">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="106">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="118"/>
+      <c r="B8" s="106"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="106">
         <v>30</v>
       </c>
     </row>
@@ -3824,1884 +3322,1884 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:14">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="89" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
-      <c r="A3" s="91" t="s">
+    <row r="3" s="76" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
+      <c r="A3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="84">
         <v>44287</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="92" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="99.75" hidden="1" spans="1:14">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="93" t="s">
+      <c r="I4" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="93" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="104.25" hidden="1" customHeight="1" spans="1:14">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="94" t="s">
+      <c r="D5" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="95" t="s">
+      <c r="F5" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="94" t="s">
+      <c r="I5" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="94" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="107"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" ht="249.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="94" t="s">
+      <c r="F7" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="94" t="s">
+      <c r="I7" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="108" t="s">
+      <c r="N7" s="96" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" ht="169.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="93" t="s">
+      <c r="D8" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="94" t="s">
+      <c r="F8" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="94" t="s">
+      <c r="I8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="96" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="128.25" hidden="1" spans="1:14">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="99" t="s">
+      <c r="D9" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="94" t="s">
+      <c r="F9" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="94" t="s">
+      <c r="I9" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="108" t="s">
+      <c r="N9" s="96" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="85.5" hidden="1" spans="1:14">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="98" t="s">
+      <c r="D10" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="109" t="s">
+      <c r="I10" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="105" t="s">
+      <c r="N10" s="93" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="71.25" hidden="1" spans="1:14">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="93" t="s">
+      <c r="D11" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="94" t="s">
+      <c r="F11" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="95" t="s">
+      <c r="I11" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="94" t="s">
+      <c r="J11" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="93" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="107"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="95"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="107"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="95"/>
     </row>
     <row r="14" ht="108.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="93" t="s">
+      <c r="D14" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="94" t="s">
+      <c r="F14" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="94" t="s">
+      <c r="I14" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="107" t="s">
+      <c r="N14" s="95" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" ht="142.5" hidden="1" spans="1:14">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="93" t="s">
+      <c r="D15" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="94" t="s">
+      <c r="F15" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="94" t="s">
+      <c r="I15" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="110" t="s">
+      <c r="N15" s="98" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="107"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="95"/>
     </row>
     <row r="17" ht="330" hidden="1" customHeight="1" spans="1:16">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="95" t="s">
+      <c r="F17" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="94" t="s">
+      <c r="I17" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="105" t="s">
+      <c r="N17" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
     </row>
     <row r="18" ht="313.5" hidden="1" spans="1:14">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="98" t="s">
+      <c r="D18" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="95" t="s">
+      <c r="F18" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="95" t="s">
+      <c r="I18" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="107"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="95"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="107"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="95"/>
     </row>
     <row r="21" ht="213.75" hidden="1" spans="1:14">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="93" t="s">
+      <c r="D21" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="95" t="s">
+      <c r="F21" s="80"/>
+      <c r="G21" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="95" t="s">
+      <c r="I21" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="113" t="s">
+      <c r="N21" s="101" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="107"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="95"/>
     </row>
     <row r="23" ht="256.5" hidden="1" spans="1:14">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="93" t="s">
+      <c r="D23" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="95" t="s">
+      <c r="F23" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="95" t="s">
+      <c r="I23" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="114" t="s">
+      <c r="N23" s="102" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" ht="142.5" hidden="1" spans="1:14">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="94" t="s">
+      <c r="D24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="95" t="s">
+      <c r="F24" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="95" t="s">
+      <c r="H24" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="95" t="s">
+      <c r="I24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="102" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" ht="57" hidden="1" spans="1:14">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="99" t="s">
+      <c r="D25" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="94" t="s">
+      <c r="F25" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="94" t="s">
+      <c r="H25" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="94" t="s">
+      <c r="I25" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="N25" s="105" t="s">
+      <c r="N25" s="93" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="107"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="95"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="107"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="95"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="107"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="95"/>
     </row>
     <row r="29" ht="99.75" hidden="1" spans="1:14">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="94" t="s">
+      <c r="F29" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="94" t="s">
+      <c r="I29" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="94" t="s">
+      <c r="L29" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="N29" s="113" t="s">
+      <c r="N29" s="101" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" ht="142.5" hidden="1" spans="1:14">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="99" t="s">
+      <c r="D30" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="94" t="s">
+      <c r="F30" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="94" t="s">
+      <c r="H30" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="108" t="s">
+      <c r="N30" s="96" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="107"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="95"/>
     </row>
     <row r="32" ht="322.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="94" t="s">
+      <c r="F32" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="95" t="s">
+      <c r="I32" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="15" t="s">
+      <c r="K32" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="105" t="s">
+      <c r="N32" s="93" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93" t="s">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93" t="s">
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="107"/>
+      <c r="N33" s="95"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93" t="s">
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="107"/>
+      <c r="N34" s="95"/>
     </row>
     <row r="35" ht="171" hidden="1" spans="1:14">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="102" t="s">
+      <c r="D35" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="95" t="s">
+      <c r="F35" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="95" t="s">
+      <c r="I35" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="114" t="s">
+      <c r="N35" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:14">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="93" t="s">
+      <c r="D36" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="N36" s="107"/>
+      <c r="N36" s="95"/>
     </row>
     <row r="37" hidden="1" spans="1:14">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93" t="s">
+      <c r="A37" s="80"/>
+      <c r="B37" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="93" t="s">
+      <c r="D37" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="107"/>
+      <c r="N37" s="95"/>
     </row>
     <row r="38" ht="42.75" hidden="1" spans="1:15">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="99" t="s">
+      <c r="E38" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="95" t="s">
+      <c r="F38" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="100" t="s">
+      <c r="H38" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="94" t="s">
+      <c r="I38" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="105" t="s">
+      <c r="N38" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="O38" s="111"/>
+      <c r="O38" s="99"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="107"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="95"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="107"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="95"/>
     </row>
     <row r="41" ht="85.5" hidden="1" spans="1:14">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="93" t="s">
+      <c r="D41" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="94" t="s">
+      <c r="F41" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="94" t="s">
+      <c r="I41" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="N41" s="115" t="s">
+      <c r="N41" s="103" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" ht="99.75" hidden="1" spans="1:14">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="99" t="s">
+      <c r="D42" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="94" t="s">
+      <c r="F42" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="95" t="s">
+      <c r="H42" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="15" t="s">
+      <c r="I42" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="94" t="s">
+      <c r="K42" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="105" t="s">
+      <c r="N42" s="93" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="43" ht="285" hidden="1" spans="1:14">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="102" t="s">
+      <c r="D43" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="95" t="s">
+      <c r="F43" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="95" t="s">
+      <c r="H43" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M43" s="95" t="s">
+      <c r="I43" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="N43" s="113" t="s">
+      <c r="N43" s="101" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44" ht="185.25" hidden="1" spans="1:14">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="102" t="s">
+      <c r="D44" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="95" t="s">
+      <c r="F44" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="95" t="s">
+      <c r="H44" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="I44" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M44" s="95" t="s">
+      <c r="I44" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="N44" s="113" t="s">
+      <c r="N44" s="101" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" ht="85.5" hidden="1" spans="1:14">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="95" t="s">
+      <c r="E45" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="95" t="s">
+      <c r="F45" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="94" t="s">
+      <c r="G45" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="15" t="s">
+      <c r="I45" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" s="94" t="s">
+      <c r="K45" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="N45" s="108" t="s">
+      <c r="N45" s="96" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="46" ht="85.5" hidden="1" spans="1:14">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="103" t="s">
+      <c r="D46" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="94" t="s">
+      <c r="F46" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="H46" s="94" t="s">
+      <c r="H46" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46" s="94" t="s">
+      <c r="I46" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="108" t="s">
+      <c r="N46" s="96" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="93"/>
-      <c r="B47" s="93" t="s">
+      <c r="A47" s="80"/>
+      <c r="B47" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="107"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="95"/>
     </row>
     <row r="48" ht="114" hidden="1" spans="1:14">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="93" t="s">
+      <c r="C48" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="99" t="s">
+      <c r="D48" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="94" t="s">
+      <c r="F48" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="I48" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M48" s="94" t="s">
+      <c r="I48" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="N48" s="108" t="s">
+      <c r="N48" s="96" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="93"/>
-      <c r="B49" s="93" t="s">
+      <c r="A49" s="80"/>
+      <c r="B49" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="93" t="s">
+      <c r="C49" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="107"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="95"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93" t="s">
+      <c r="A50" s="80"/>
+      <c r="B50" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="107"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="95"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="93"/>
-      <c r="B51" s="93" t="s">
+      <c r="A51" s="80"/>
+      <c r="B51" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="107"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="95"/>
     </row>
     <row r="52" ht="114" hidden="1" spans="1:14">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="93" t="s">
+      <c r="D52" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="94" t="s">
+      <c r="F52" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="H52" s="95" t="s">
+      <c r="H52" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M52" s="94" t="s">
+      <c r="I52" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M52" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="107" t="s">
+      <c r="N52" s="95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" ht="156.75" hidden="1" spans="1:14">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="93" t="s">
+      <c r="C53" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="94" t="s">
+      <c r="D53" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="93" t="s">
+      <c r="E53" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="94" t="s">
+      <c r="F53" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="I53" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M53" s="94" t="s">
+      <c r="I53" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="N53" s="116" t="s">
+      <c r="N53" s="104" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="93"/>
-      <c r="B54" s="93" t="s">
+      <c r="A54" s="80"/>
+      <c r="B54" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="93" t="s">
+      <c r="C54" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="107"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="95"/>
     </row>
     <row r="55" ht="42.75" hidden="1" spans="1:14">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="93" t="s">
+      <c r="D55" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="93" t="s">
+      <c r="F55" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="94" t="s">
+      <c r="G55" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="94" t="s">
+      <c r="H55" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="J55" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="93" t="s">
+      <c r="K55" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="L55" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="15" t="s">
+      <c r="L55" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="N55" s="105" t="s">
+      <c r="N55" s="93" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="31" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5748,35 +5246,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P65"/>
+  <dimension ref="A2:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.2833333333333" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.2083333333333" customWidth="1"/>
     <col min="3" max="3" width="17.7083333333333" customWidth="1"/>
     <col min="4" max="4" width="23.1416666666667" customWidth="1"/>
     <col min="5" max="5" width="30.8583333333333" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="85.5666666666667" customWidth="1"/>
     <col min="8" max="8" width="22.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.8583333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.5666666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.1416666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.7083333333333" customWidth="1"/>
+    <col min="9" max="12" width="5.625" customWidth="1"/>
     <col min="13" max="13" width="56.7083333333333" customWidth="1"/>
     <col min="14" max="15" width="105.283333333333" customWidth="1"/>
     <col min="38" max="38" width="19.2833333333333" customWidth="1"/>
     <col min="39" max="39" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="3:5">
+    <row r="2" ht="22.5" spans="3:5">
       <c r="C2" s="10" t="s">
         <v>225</v>
       </c>
@@ -5784,1331 +5279,1389 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" ht="18.75" spans="3:5">
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="18.75" spans="3:5">
-      <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="18.75" spans="3:5">
-      <c r="C5" s="6"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="7" ht="47.25" customHeight="1" spans="1:15">
-      <c r="A7" s="14" t="s">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="18.75" spans="3:5">
+      <c r="C6" s="6"/>
+      <c r="D6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="8" ht="47.25" customHeight="1" spans="1:15">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="O7" s="61" t="s">
+      <c r="N8" s="57" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A8" s="15" t="s">
+      <c r="O8" s="57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="F9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="I9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="N8" s="62" t="s">
+      <c r="L9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="N9" s="58" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A9" s="15" t="s">
+      <c r="O9" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="36" t="s">
+      <c r="I10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="N9" s="64" t="s">
+      <c r="L10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="N10" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A10" s="18" t="s">
+      <c r="O10" s="59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A11" s="16" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="28" customHeight="1" spans="1:15">
+      <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="38" t="s">
+      <c r="D12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="36" t="s">
+      <c r="F12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="N11" s="64" t="s">
+      <c r="I12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="N12" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A12" s="18" t="s">
+      <c r="O12" s="61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B13" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-    </row>
-    <row r="13" s="7" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A13" s="20" t="s">
+      <c r="D13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="E14" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="N13" s="64" t="s">
+      <c r="I14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A14" s="18" t="s">
+      <c r="O14" s="61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A15" s="15" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="42" t="s">
+      <c r="D16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="N15" s="69" t="s">
+      <c r="M16" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="N16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A16" s="15" t="s">
+      <c r="O16" s="65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="43" t="s">
+      <c r="D17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F17" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="N16" s="72" t="s">
+      <c r="I17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="N17" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="73" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" s="8" customFormat="1" ht="25" customHeight="1" spans="1:16">
-      <c r="A17" s="24" t="s">
+      <c r="O17" s="65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1" ht="25" customHeight="1" spans="1:16">
+      <c r="A18" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="75"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A18" s="15" t="s">
+      <c r="C18" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="47" t="s">
+      <c r="D19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="O19" s="50" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="N21" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="N22" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="O18" s="77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A19" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="N19" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="O19" s="79" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A20" s="15" t="s">
+      <c r="F28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="N28" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="O28" s="58" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="N29" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="O29" s="58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A30" s="24" t="s">
         <v>3</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="O20" s="77" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="N21" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A23" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="N23" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="O23" s="82" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" s="8" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="N25" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="O25" s="84" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="N26" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="O26" s="76" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="N27" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="O27" s="86" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="N28" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="O28" s="86" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" s="8" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A29" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-    </row>
-    <row r="30" s="8" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A30" s="24" t="s">
-        <v>2</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+    </row>
+    <row r="31" s="7" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A31" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-    </row>
-    <row r="31" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A31" s="15" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="57" t="s">
+      <c r="D32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="N31" s="69" t="s">
+      <c r="F32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="N32" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="O31" s="82" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A32" s="15" t="s">
+      <c r="O32" s="58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="D33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="H32" s="42" t="s">
+      <c r="F33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="I32" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="N32" s="80" t="s">
+      <c r="I33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="N33" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="O32" s="77" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A33" s="15" t="s">
+      <c r="O33" s="50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E34" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="H33" s="51" t="s">
+      <c r="F34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="58" t="s">
+      <c r="I34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="K33" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="N33" s="69" t="s">
+      <c r="K34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="N34" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="O33" s="82" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A34" s="15" t="s">
+      <c r="O34" s="58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="O35" s="61" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="N36" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="O36" s="74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="N37" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="O37" s="58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="N34" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-    </row>
-    <row r="36" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="H36" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="N36" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="O36" s="82" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" s="5" customFormat="1" ht="57" spans="1:15">
-      <c r="A37" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="F37" s="51" t="s">
+      <c r="D38" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G38" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="58" t="s">
+      <c r="H38" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="51" t="s">
+      <c r="J38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="L37" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="M37" s="51" t="s">
+      <c r="K38" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="N37" s="69" t="s">
+      <c r="N38" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="O37" s="76" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="62" ht="18.75" spans="3:4">
-      <c r="C62" s="34" t="s">
+      <c r="O38" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" spans="3:4">
+      <c r="C63" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" ht="18.75" spans="3:4">
-      <c r="C63" s="11"/>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="33"/>
+    </row>
+    <row r="64" ht="18.75" spans="3:4">
+      <c r="C64" s="8"/>
+      <c r="D64" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" ht="18.75" spans="3:4">
-      <c r="C64" s="35"/>
-      <c r="D64" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row r="65" ht="18.75" spans="3:4">
-      <c r="C65" s="6"/>
-      <c r="D65" s="34" t="s">
+      <c r="C65" s="75"/>
+      <c r="D65" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" spans="3:4">
+      <c r="C66" s="13"/>
+      <c r="D66" s="32" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:N39">
-    <sortState ref="A7:N39">
+  <autoFilter ref="A8:N40">
+    <sortState ref="A8:N40">
       <sortCondition ref="C2"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N8" r:id="rId1" display="https://www.forbes.com.mx/mundo-alemania-regreso-a-clases-pandemia/                               https://www.forbes.com.mx/mundo-alemania-regreso-a-clases-cubrebocas-cierres-contagios/  https://www.france24.com/es/europa/20210228-vuelta-mundo-alemania-clases-paraguay     https://www.dw.com/es/alemania-lista-para-volver-a-la-escuela-en-tiempos-de-coronavirus/a-54398811&#10;https://www.dw.com/es/coronavirus-as%C3%AD-busca-alemania-reencontrar-la-normalidad/a-56805965"/>
-    <hyperlink ref="N13" r:id="rId2" display="https://www.efe.com/efe/espana/sociedad/los-alumnos-belgas-a-por-su-segunda-semana-de-clase-tras-las-vacaciones/10004-4436534       https://expansion.mx/mundo/2020/09/01/europa-afronta-el-regreso-a-clases-tras-una-pausa-de-seis-meses-por-el-covid-19"/>
-    <hyperlink ref="N15" r:id="rId3" display="https://www.mineduc.cl/aprendizaje-socioemocional-en-tiempos-de-pandemia/&#10;https://www.mineduc.cl/chile-recupera-y-aprende/&#10;https://www.mineduc.cl/clases-presenciales-balance-inicio-del-ano-escolar/&#10;https://www.gob.cl/coronavirus/pasoapaso#documentos/"/>
-    <hyperlink ref="O15" r:id="rId4" display="https://www.colegiodeprofesores.cl/wp-content/uploads/2020/07/PlanRetornoAClases-08.06.pdf&#10;&#10;https://chile.as.com/chile/2021/07/08/actualidad/1625770036_734481.html&#10;&#10;https://www.unicef.org/chile/informes/aprendizajes-educacion-parvularia-medidas&#10;"/>
-    <hyperlink ref="N16" r:id="rId5" display="https://www.eltiempo.com/vida/educacion/regreso-a-clases-ministerio-de-educacion-responde-preguntas-sobre-alternancia-565145"/>
-    <hyperlink ref="O16" r:id="rId6" display="https://www.mineducacion.gov.co/1759/articles-399094_recurso_1.pdf"/>
-    <hyperlink ref="N9" r:id="rId7" display="https://www.argentina.gob.ar/sites/default/files/protocolo_marco_y_lineamientos_federales__0.pdf  https://www.argentina.gob.ar/educacion/seguimos-educando-en-las-escuelas/planificacion-para-el-regreso-la-presencialidad       https://www.argentina.gob.ar/sites/default/files/res_376_anexo_i_inicial_if-2020-75667793-apn-sgcfeme.pdf"/>
-    <hyperlink ref="N11" r:id="rId8" display="https://www.sandiegouniontribune.com/en-espanol/noticias/story/2021-02-01/bolivia-inicia-clases-presenciales-y-a-distancia-en-pandemia  ;  https://mundo.sputniknews.com/20210205/tras-un-2020-perdido-bolivia-retoma-las-clases-con-un-novedoso-sistema-1094339924.html "/>
-    <hyperlink ref="N20" r:id="rId9" display="https://www.elcomercio.com/actualidad/protocolo-retorno-clases-presenciales-ecuador.html#:~:text=El%20retorno%20arranc%C3%B3%20este%20martes,educativas%20ubicadas%20en%20zonas%20rurales.&#10;https://www.elcomercio.com/actualidad/regreso-universitarios-clases-presenciales-ecuador.html&#10;https://as.com/diarioas/2021/03/01/actualidad/1614633667_863895.html&#10;"/>
-    <hyperlink ref="N25" r:id="rId10" display="https://www.prensa-latina.cu/index.php?o=rn&amp;id=434735&amp;SEO=guatemala-lanza-proyecto-juntos-por-un-regreso-a-clases-seguro&#10;https://www.unicef.org/guatemala/comunicados-prensa/unicef-felicita-los-ni%C3%B1os-y-al-gobierno-de-guatemala-por-el-regreso-clases&#10;https://aprendoencasayenclase.mineduc.gob.gt/images/sampledata/asimages/regreso-a-clases/PROTOCOLO-Docentes-de-centros-educativos.pdf&#10;"/>
-    <hyperlink ref="N27" r:id="rId11" display="https://www.lavanguardia.com/vida/20210211/6239456/israel-da-paso-desescalada-e-inicia-apertura-sistema-educativo.html&#10;&#10;https://www.youtube.com/watch?v=LwRi4PwzAJY &#10;&#10;https://www.nytimes.com/es/2020/08/06/espanol/mundo/abrir-escuelas-israel-coronavirus.html &#10;https://elpais.com/sociedad/2021-03-08/israel-regresa-a-la-normalidad-tras-un-ano-de-pandemia-mientras-en-palestina-se-reimpone-el-confinamiento.html&#10;&#10;https://www.latercera.com/earlyaccess/noticia/vacunacion-nuevos-protocolos-y-dudas-el-retorno-a-clases-presenciales-en-el-mundo/CU753Z5SHBFGNG5QPZWAVESBCQ/&#10;https://www.infobae.com/educacion/2020/06/13/el-metodo-10-4-las-claves-del-modelo-israeli-que-aplicaria-la-ciudad-de-buenos-aires-para-volver-a-las-aulas/&#10;&#10;https://as.com/diarioas/2021/06/20/actualidad/1624186462_891589.html&#10;&#10;https://www.topprofes.com/israel-ha-dicho-que-probablemente-retrasara-la-reapertura-de-la-frontera-para-la-mayoria-de-los-turistas-hasta-septiembre/"/>
-    <hyperlink ref="O27" r:id="rId11" display="https://as.com/diarioas/2021/06/20/actualidad/1624186462_891589.html&#10;&#10;https://www.topprofes.com/israel-ha-dicho-que-probablemente-retrasara-la-reapertura-de-la-frontera-para-la-mayoria-de-los-turistas-hasta-septiembre/"/>
-    <hyperlink ref="N28" r:id="rId12" display="https://www.reuters.com/article/salud-health-coronavirus-italia-escuelas-idESKCN2AU2GR&#10;&#10;https://www.efe.com/efe/espana/sociedad/roma-y-su-region-empiezan-a-vacunar-los-profesores/10004-4470819 &#10;&#10;https://www.governo.it/it/articolo/comunicato-stampa-del-consiglio-dei-ministri-n-10/16525 &#10;&#10;https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/"/>
-    <hyperlink ref="O28" r:id="rId13" display="https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/" tooltip="https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/"/>
-    <hyperlink ref="N19" r:id="rId14" display="https://www.radioreloj.cu/noticias-radio-reloj/educacion/retorno-a-las-aulas-habaneras/       https://andina.pe/agencia/noticia-cuba-iniciara-junio-proceso-vacunacion-su-propia-vacuna-anticovid-838677.aspx    https://www.mined.gob.cu/reitera-mined-cumplimiento-de-medidas-frente-a-la-covid-19/#  ; https://medicinaysaludpublica.com/noticias/salud-publica/lenta-inmunizacion-en-el-caribe-incluyendo-cuba-y-haiti/8395  ; https://www.radionuevitas.icrt.cu/cuba/7307-desmiente-ministra-de-educacion-reinicio-de-curso-escolar-en-cuba.html"/>
-    <hyperlink ref="N23" r:id="rId15" display="https://www.europapress.es/internacional/noticia-finlandia-reabrira-14-mayo-escuelas-educacion-primaria-secundaria-pesar-coronavirus-20200429215008.html&#10;https://www.efe.com/efe/espana/mundo/finlandia-reabre-escuelas-y-guarderias-da-por-controlada-la-pandemia/10001-4246227&#10;https://escolar.mineduc.cl/2020/09/14/abrir-las-escuelas-experiencias-internacionales-de-retorno-a-clases-presenciales/"/>
-    <hyperlink ref="N31" r:id="rId16" display="Coronavirus: el modelo que usa Noruega para garantizar clases presenciales - LA NACION"/>
-    <hyperlink ref="N33" r:id="rId17" display="https://www.rijksoverheid.nl/onderwerpen/coronavirus-covid-19/documenten/publicaties/2021/02/26/visual-onderwijs-vanaf-1-maart  ; https://www.rijksoverheid.nl/onderwerpen/coronavirus-covid-19/onderwijs-en-kinderopvang/basisonderwijs-en-speciaal-onderwijs"/>
-    <hyperlink ref="N36" r:id="rId18" display="https://www.france24.com/es/20200831-suecia-apuesta-regreso-clases&#10;https://cadenaser.com/ser/2020/04/26/internacional/1587885961_930096.html"/>
-    <hyperlink ref="N37" r:id="rId19" display="https://www.vtv.gob.ve/asesorias-pedagogicas-escuelas-liceos-universidades-semanas-flexibilizacion/  ; https://mundo.sputniknews.com/20210325/en-julio-comienza-inmunizacion-masiva-en-venezuela-con-vacuna-cubana-abdala-1110443383.html"/>
+    <hyperlink ref="N9" r:id="rId1" display="https://www.forbes.com.mx/mundo-alemania-regreso-a-clases-pandemia/                               https://www.forbes.com.mx/mundo-alemania-regreso-a-clases-cubrebocas-cierres-contagios/  https://www.france24.com/es/europa/20210228-vuelta-mundo-alemania-clases-paraguay     https://www.dw.com/es/alemania-lista-para-volver-a-la-escuela-en-tiempos-de-coronavirus/a-54398811&#10;https://www.dw.com/es/coronavirus-as%C3%AD-busca-alemania-reencontrar-la-normalidad/a-56805965"/>
+    <hyperlink ref="N14" r:id="rId2" display="https://www.efe.com/efe/espana/sociedad/los-alumnos-belgas-a-por-su-segunda-semana-de-clase-tras-las-vacaciones/10004-4436534       https://expansion.mx/mundo/2020/09/01/europa-afronta-el-regreso-a-clases-tras-una-pausa-de-seis-meses-por-el-covid-19"/>
+    <hyperlink ref="N16" r:id="rId3" display="https://www.mineduc.cl/aprendizaje-socioemocional-en-tiempos-de-pandemia/&#10;https://www.mineduc.cl/chile-recupera-y-aprende/&#10;https://www.mineduc.cl/clases-presenciales-balance-inicio-del-ano-escolar/&#10;https://www.gob.cl/coronavirus/pasoapaso#documentos/"/>
+    <hyperlink ref="O16" r:id="rId4" display="https://www.colegiodeprofesores.cl/wp-content/uploads/2020/07/PlanRetornoAClases-08.06.pdf&#10;&#10;https://chile.as.com/chile/2021/07/08/actualidad/1625770036_734481.html&#10;&#10;https://www.unicef.org/chile/informes/aprendizajes-educacion-parvularia-medidas&#10;"/>
+    <hyperlink ref="N17" r:id="rId5" display="https://www.eltiempo.com/vida/educacion/regreso-a-clases-ministerio-de-educacion-responde-preguntas-sobre-alternancia-565145"/>
+    <hyperlink ref="O17" r:id="rId6" display="https://www.mineducacion.gov.co/1759/articles-399094_recurso_1.pdf"/>
+    <hyperlink ref="N10" r:id="rId7" display="https://www.argentina.gob.ar/sites/default/files/protocolo_marco_y_lineamientos_federales__0.pdf  https://www.argentina.gob.ar/educacion/seguimos-educando-en-las-escuelas/planificacion-para-el-regreso-la-presencialidad       https://www.argentina.gob.ar/sites/default/files/res_376_anexo_i_inicial_if-2020-75667793-apn-sgcfeme.pdf"/>
+    <hyperlink ref="N12" r:id="rId8" display="https://www.sandiegouniontribune.com/en-espanol/noticias/story/2021-02-01/bolivia-inicia-clases-presenciales-y-a-distancia-en-pandemia  ;  https://mundo.sputniknews.com/20210205/tras-un-2020-perdido-bolivia-retoma-las-clases-con-un-novedoso-sistema-1094339924.html "/>
+    <hyperlink ref="N21" r:id="rId9" display="https://www.elcomercio.com/actualidad/protocolo-retorno-clases-presenciales-ecuador.html#:~:text=El%20retorno%20arranc%C3%B3%20este%20martes,educativas%20ubicadas%20en%20zonas%20rurales.&#10;https://www.elcomercio.com/actualidad/regreso-universitarios-clases-presenciales-ecuador.html&#10;https://as.com/diarioas/2021/03/01/actualidad/1614633667_863895.html&#10;"/>
+    <hyperlink ref="N26" r:id="rId10" display="https://www.prensa-latina.cu/index.php?o=rn&amp;id=434735&amp;SEO=guatemala-lanza-proyecto-juntos-por-un-regreso-a-clases-seguro&#10;https://www.unicef.org/guatemala/comunicados-prensa/unicef-felicita-los-ni%C3%B1os-y-al-gobierno-de-guatemala-por-el-regreso-clases&#10;https://aprendoencasayenclase.mineduc.gob.gt/images/sampledata/asimages/regreso-a-clases/PROTOCOLO-Docentes-de-centros-educativos.pdf&#10;"/>
+    <hyperlink ref="N28" r:id="rId11" display="https://www.lavanguardia.com/vida/20210211/6239456/israel-da-paso-desescalada-e-inicia-apertura-sistema-educativo.html&#10;&#10;https://www.youtube.com/watch?v=LwRi4PwzAJY &#10;&#10;https://www.nytimes.com/es/2020/08/06/espanol/mundo/abrir-escuelas-israel-coronavirus.html &#10;https://elpais.com/sociedad/2021-03-08/israel-regresa-a-la-normalidad-tras-un-ano-de-pandemia-mientras-en-palestina-se-reimpone-el-confinamiento.html&#10;&#10;https://www.latercera.com/earlyaccess/noticia/vacunacion-nuevos-protocolos-y-dudas-el-retorno-a-clases-presenciales-en-el-mundo/CU753Z5SHBFGNG5QPZWAVESBCQ/&#10;https://www.infobae.com/educacion/2020/06/13/el-metodo-10-4-las-claves-del-modelo-israeli-que-aplicaria-la-ciudad-de-buenos-aires-para-volver-a-las-aulas/&#10;&#10;https://as.com/diarioas/2021/06/20/actualidad/1624186462_891589.html&#10;&#10;https://www.topprofes.com/israel-ha-dicho-que-probablemente-retrasara-la-reapertura-de-la-frontera-para-la-mayoria-de-los-turistas-hasta-septiembre/"/>
+    <hyperlink ref="O28" r:id="rId11" display="https://as.com/diarioas/2021/06/20/actualidad/1624186462_891589.html&#10;&#10;https://www.topprofes.com/israel-ha-dicho-que-probablemente-retrasara-la-reapertura-de-la-frontera-para-la-mayoria-de-los-turistas-hasta-septiembre/"/>
+    <hyperlink ref="N29" r:id="rId12" display="https://www.reuters.com/article/salud-health-coronavirus-italia-escuelas-idESKCN2AU2GR&#10;&#10;https://www.efe.com/efe/espana/sociedad/roma-y-su-region-empiezan-a-vacunar-los-profesores/10004-4470819 &#10;&#10;https://www.governo.it/it/articolo/comunicato-stampa-del-consiglio-dei-ministri-n-10/16525 &#10;&#10;https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/"/>
+    <hyperlink ref="O29" r:id="rId13" display="https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/" tooltip="https://www.thelocal.it/20210705/covid-19-italian-schools-set-to-keep-using-masks-and-distancing-from-september/"/>
+    <hyperlink ref="N20" r:id="rId14" display="https://www.radioreloj.cu/noticias-radio-reloj/educacion/retorno-a-las-aulas-habaneras/       https://andina.pe/agencia/noticia-cuba-iniciara-junio-proceso-vacunacion-su-propia-vacuna-anticovid-838677.aspx    https://www.mined.gob.cu/reitera-mined-cumplimiento-de-medidas-frente-a-la-covid-19/#  ; https://medicinaysaludpublica.com/noticias/salud-publica/lenta-inmunizacion-en-el-caribe-incluyendo-cuba-y-haiti/8395  ; https://www.radionuevitas.icrt.cu/cuba/7307-desmiente-ministra-de-educacion-reinicio-de-curso-escolar-en-cuba.html"/>
+    <hyperlink ref="N24" r:id="rId15" display="https://www.europapress.es/internacional/noticia-finlandia-reabrira-14-mayo-escuelas-educacion-primaria-secundaria-pesar-coronavirus-20200429215008.html&#10;https://www.efe.com/efe/espana/mundo/finlandia-reabre-escuelas-y-guarderias-da-por-controlada-la-pandemia/10001-4246227&#10;https://escolar.mineduc.cl/2020/09/14/abrir-las-escuelas-experiencias-internacionales-de-retorno-a-clases-presenciales/"/>
+    <hyperlink ref="N32" r:id="rId16" display="Coronavirus: el modelo que usa Noruega para garantizar clases presenciales - LA NACION"/>
+    <hyperlink ref="N34" r:id="rId17" display="https://www.rijksoverheid.nl/onderwerpen/coronavirus-covid-19/documenten/publicaties/2021/02/26/visual-onderwijs-vanaf-1-maart  ; https://www.rijksoverheid.nl/onderwerpen/coronavirus-covid-19/onderwijs-en-kinderopvang/basisonderwijs-en-speciaal-onderwijs"/>
+    <hyperlink ref="N37" r:id="rId18" display="https://www.france24.com/es/20200831-suecia-apuesta-regreso-clases&#10;https://cadenaser.com/ser/2020/04/26/internacional/1587885961_930096.html"/>
+    <hyperlink ref="N38" r:id="rId19" display="https://www.vtv.gob.ve/asesorias-pedagogicas-escuelas-liceos-universidades-semanas-flexibilizacion/  ; https://mundo.sputniknews.com/20210325/en-julio-comienza-inmunizacion-masiva-en-venezuela-con-vacuna-cubana-abdala-1110443383.html"/>
+    <hyperlink ref="O36" r:id="rId20" display="https://dfemedia.blog.gov.uk/2021/03/09/back-to-school-week-everything-you-need-to-know/&#10;https://www.gov.uk/government/publications/actions-for-schools-during-the-coronavirus-outbreak/schools-coronavirus-covid-19-operational-guidance#curriculum&#10;https://expansion.mx/mundo/2021/06/15/como-ha-sido-el-regreso-a-clase-en-pandemia-en-europa"/>
+    <hyperlink ref="N36" r:id="rId20" display="https://dfemedia.blog.gov.uk/2021/03/09/back-to-school-week-everything-you-need-to-know/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7134,13 +6687,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -7217,7 +6770,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -7228,7 +6781,7 @@
         <v>181</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -7236,7 +6789,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>207</v>
@@ -7258,10 +6811,10 @@
         <v>181</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -7294,7 +6847,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -7371,7 +6924,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -7382,7 +6935,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -7393,7 +6946,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -7404,7 +6957,7 @@
         <v>122</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -7426,7 +6979,7 @@
         <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -7437,7 +6990,7 @@
         <v>125</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -7448,7 +7001,7 @@
         <v>132</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -7459,7 +7012,7 @@
         <v>137</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -7470,7 +7023,7 @@
         <v>138</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -7478,7 +7031,7 @@
         <v>144</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -7486,7 +7039,7 @@
         <v>146</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -7494,7 +7047,7 @@
         <v>148</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -7502,7 +7055,7 @@
         <v>153</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -7510,7 +7063,7 @@
         <v>157</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -7518,7 +7071,7 @@
         <v>162</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="3:4">
@@ -7526,27 +7079,27 @@
         <v>163</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="4" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="4" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="4" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="4" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
